--- a/back_testing/summary_excel/nasdaq_for_backtest_summary.xlsx
+++ b/back_testing/summary_excel/nasdaq_for_backtest_summary.xlsx
@@ -15,6 +15,242 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>openinterest</t>
+  </si>
+  <si>
+    <t>OTri</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>Buy_amount</t>
+  </si>
+  <si>
+    <t>Buy_price</t>
+  </si>
+  <si>
+    <t>Buy_value</t>
+  </si>
+  <si>
+    <t>Buy_comm</t>
+  </si>
+  <si>
+    <t>Buy_date</t>
+  </si>
+  <si>
+    <t>Sell_amount</t>
+  </si>
+  <si>
+    <t>Sell_price</t>
+  </si>
+  <si>
+    <t>Sell_value</t>
+  </si>
+  <si>
+    <t>Sell_comm</t>
+  </si>
+  <si>
+    <t>Sell_date</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>net_profit</t>
+  </si>
+  <si>
+    <t>trans_return</t>
+  </si>
+  <si>
+    <t>daily_return</t>
+  </si>
+  <si>
+    <t>annual_return</t>
+  </si>
+  <si>
+    <t>close_type</t>
+  </si>
+  <si>
+    <t>nasdaq_for_backtest</t>
+  </si>
+  <si>
+    <t>2016-11-22</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2017-04-04</t>
+  </si>
+  <si>
+    <t>2017-04-21</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2017-06-22</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-07-07</t>
+  </si>
+  <si>
+    <t>2017-07-18</t>
+  </si>
+  <si>
+    <t>2017-08-17</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-08-22</t>
+  </si>
+  <si>
+    <t>2017-09-05</t>
+  </si>
+  <si>
+    <t>2018-02-09</t>
+  </si>
+  <si>
+    <t>2018-02-26</t>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+  </si>
+  <si>
+    <t>2018-03-29</t>
+  </si>
+  <si>
+    <t>2018-04-02</t>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2018-07-11</t>
+  </si>
+  <si>
+    <t>2018-09-18</t>
+  </si>
+  <si>
+    <t>2018-09-19</t>
+  </si>
+  <si>
+    <t>2018-09-25</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>2018-10-11</t>
+  </si>
+  <si>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>2018-12-14</t>
+  </si>
+  <si>
+    <t>2019-01-15</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>Not_close</t>
+  </si>
+  <si>
+    <t>Avg_trans_return</t>
+  </si>
+  <si>
+    <t>Avg_daily_return</t>
+  </si>
+  <si>
+    <t>Avg_annual_return</t>
+  </si>
+  <si>
+    <t>Avg_period</t>
+  </si>
+  <si>
+    <t>total_period</t>
+  </si>
+  <si>
+    <t>cum_return</t>
+  </si>
+  <si>
+    <t>sharpe_ratio</t>
+  </si>
+  <si>
+    <t>geo_avg_daily_return</t>
+  </si>
+  <si>
+    <t>geo_avg_annual_return</t>
+  </si>
+  <si>
+    <t>win_time</t>
+  </si>
+  <si>
+    <t>loss_time</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>win_percent</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,54 +627,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>openinterest</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>OTri</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -470,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -502,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -534,7 +752,7 @@
         <v>0.6554276578193573</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -566,7 +784,7 @@
         <v>0.6971134342258484</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -598,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -630,7 +848,7 @@
         <v>0.9012276566825209</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -662,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -694,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -726,7 +944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -758,7 +976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -790,7 +1008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -822,7 +1040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -854,7 +1072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -886,7 +1104,7 @@
         <v>0.5754040970200217</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -918,7 +1136,7 @@
         <v>0.8115610908387091</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -950,7 +1168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -982,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1014,7 +1232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1046,7 +1264,7 @@
         <v>0.9854573655489998</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1078,7 +1296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1110,7 +1328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1142,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1174,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1206,7 +1424,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -1238,7 +1456,7 @@
         <v>0.7468283577280284</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1270,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -1302,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -1334,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -1366,7 +1584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1398,7 +1616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1430,7 +1648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -1462,7 +1680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -1494,7 +1712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -1526,7 +1744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -1558,7 +1776,7 @@
         <v>0.6339628388404871</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -1590,7 +1808,7 @@
         <v>0.8034122981313805</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -1622,7 +1840,7 @@
         <v>0.62376688454188</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -1654,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -1686,7 +1904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -1718,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -1750,7 +1968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -1782,7 +2000,7 @@
         <v>0.5248868805135892</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -1814,7 +2032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -1846,7 +2064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -1878,7 +2096,7 @@
         <v>0.6035490156545095</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -1910,7 +2128,7 @@
         <v>0.9405180588735592</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -1942,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -1974,7 +2192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2006,7 +2224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -2038,7 +2256,7 @@
         <v>0.6054913955182906</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2070,7 +2288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2102,7 +2320,7 @@
         <v>0.6508946235430546</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -2134,7 +2352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -2166,7 +2384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -2198,7 +2416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -2230,7 +2448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -2262,7 +2480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -2294,7 +2512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -2326,7 +2544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -2358,7 +2576,7 @@
         <v>0.5958615974813606</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -2390,7 +2608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -2422,7 +2640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -2454,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -2486,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -2518,7 +2736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -2550,7 +2768,7 @@
         <v>0.7724923101261747</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -2582,7 +2800,7 @@
         <v>0.7319635664374168</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -2614,7 +2832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -2646,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -2678,7 +2896,7 @@
         <v>0.7790945118513797</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -2710,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -2742,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -2774,7 +2992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -2806,7 +3024,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -2838,7 +3056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -2870,7 +3088,7 @@
         <v>0.6294875026377962</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -2902,7 +3120,7 @@
         <v>0.7192918035286644</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -2934,7 +3152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -2966,7 +3184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -2998,7 +3216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -3030,7 +3248,7 @@
         <v>0.9975404529187822</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -3062,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -3094,7 +3312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
@@ -3126,7 +3344,7 @@
         <v>0.6787371610870123</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -3158,7 +3376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
@@ -3190,7 +3408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
@@ -3222,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
@@ -3254,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
@@ -3286,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
@@ -3318,7 +3536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
@@ -3350,7 +3568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
@@ -3382,7 +3600,7 @@
         <v>0.9424304062220096</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
@@ -3414,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
@@ -3446,7 +3664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
@@ -3478,7 +3696,7 @@
         <v>0.6827072510422163</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
@@ -3510,7 +3728,7 @@
         <v>0.889827590882491</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
@@ -3542,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
@@ -3574,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
@@ -3606,7 +3824,7 @@
         <v>0.8002534056019217</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
@@ -3638,7 +3856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
@@ -3670,7 +3888,7 @@
         <v>0.7699135739555332</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
@@ -3702,7 +3920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
@@ -3734,7 +3952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
@@ -3766,7 +3984,7 @@
         <v>0.5426997390061218</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
@@ -3798,7 +4016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
@@ -3830,7 +4048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
@@ -3862,7 +4080,7 @@
         <v>0.5054882840170154</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
@@ -3894,7 +4112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
@@ -3926,7 +4144,7 @@
         <v>0.5151178778653839</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
@@ -3958,7 +4176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
@@ -3990,7 +4208,7 @@
         <v>0.9173977332124036</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
@@ -4022,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
@@ -4054,7 +4272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
@@ -4086,7 +4304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
@@ -4118,7 +4336,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
@@ -4150,7 +4368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
@@ -4182,7 +4400,7 @@
         <v>0.6756381326015894</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
@@ -4214,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
@@ -4246,7 +4464,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
@@ -4278,7 +4496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
@@ -4310,7 +4528,7 @@
         <v>0.9363291625197744</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
@@ -4342,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
@@ -4374,7 +4592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
@@ -4406,7 +4624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
@@ -4438,7 +4656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
@@ -4470,7 +4688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
@@ -4502,7 +4720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
@@ -4534,7 +4752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
@@ -4566,7 +4784,7 @@
         <v>0.6478446428571129</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
@@ -4598,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
@@ -4630,7 +4848,7 @@
         <v>0.5483328026639888</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
@@ -4662,7 +4880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
@@ -4694,7 +4912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
@@ -4726,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
@@ -4758,7 +4976,7 @@
         <v>0.9619238261018586</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
@@ -4790,7 +5008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
@@ -4822,7 +5040,7 @@
         <v>0.8929202547044961</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
@@ -4854,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
@@ -4886,7 +5104,7 @@
         <v>0.8613877560345135</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
@@ -4918,7 +5136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
@@ -4950,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
@@ -4982,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
@@ -5014,7 +5232,7 @@
         <v>0.5787405959885432</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
@@ -5046,7 +5264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
@@ -5078,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
@@ -5110,7 +5328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
@@ -5142,7 +5360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
@@ -5174,7 +5392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
@@ -5206,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
@@ -5238,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
@@ -5270,7 +5488,7 @@
         <v>0.5126028066737449</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
@@ -5302,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
@@ -5334,7 +5552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
@@ -5366,7 +5584,7 @@
         <v>0.3720589319497651</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
@@ -5398,7 +5616,7 @@
         <v>0.167753508792249</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
@@ -5430,7 +5648,7 @@
         <v>0.4825509987666373</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
@@ -5462,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
@@ -5494,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
@@ -5526,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
@@ -5558,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
@@ -5590,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
@@ -5622,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
@@ -5654,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
@@ -5686,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
@@ -5718,7 +5936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
@@ -5750,7 +5968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
@@ -5782,7 +6000,7 @@
         <v>0.5487856514157221</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
@@ -5814,7 +6032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
@@ -5846,7 +6064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
@@ -5878,7 +6096,7 @@
         <v>0.8695751650657133</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
@@ -5910,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
@@ -5942,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
@@ -5974,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
@@ -6006,7 +6224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
@@ -6038,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
@@ -6070,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
@@ -6102,7 +6320,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
@@ -6134,7 +6352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
@@ -6166,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
@@ -6198,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
@@ -6230,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
@@ -6262,7 +6480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
@@ -6294,7 +6512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
@@ -6326,7 +6544,7 @@
         <v>0.7983535586532915</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
@@ -6358,7 +6576,7 @@
         <v>0.4508923466839036</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
@@ -6390,7 +6608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
@@ -6422,7 +6640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
@@ -6454,7 +6672,7 @@
         <v>0.02015351565037378</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
@@ -6486,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
@@ -6518,7 +6736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
@@ -6550,7 +6768,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
@@ -6582,7 +6800,7 @@
         <v>0.1636933056453941</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
@@ -6614,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
@@ -6646,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
@@ -6678,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
@@ -6710,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
@@ -6742,7 +6960,7 @@
         <v>0.4441943302315945</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
@@ -6774,7 +6992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
@@ -6806,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
@@ -6838,7 +7056,7 @@
         <v>0.9394899588579424</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
@@ -6870,7 +7088,7 @@
         <v>0.7614143714099554</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
@@ -6902,7 +7120,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
@@ -6934,7 +7152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
@@ -6966,7 +7184,7 @@
         <v>0.9050115392665024</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
@@ -6998,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
@@ -7030,7 +7248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
@@ -7062,7 +7280,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
@@ -7094,7 +7312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
@@ -7126,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
@@ -7158,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
@@ -7190,7 +7408,7 @@
         <v>0.9624536202488444</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
@@ -7222,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
@@ -7254,7 +7472,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
@@ -7286,7 +7504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
@@ -7318,7 +7536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
@@ -7350,7 +7568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
@@ -7382,7 +7600,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
@@ -7414,7 +7632,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
@@ -7446,7 +7664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
@@ -7478,7 +7696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
@@ -7510,7 +7728,7 @@
         <v>0.7693673400958527</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
@@ -7542,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
@@ -7574,7 +7792,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
@@ -7606,7 +7824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
@@ -7638,7 +7856,7 @@
         <v>0.9212738327726072</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:10">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
@@ -7670,7 +7888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:10">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
@@ -7702,7 +7920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:10">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
@@ -7734,7 +7952,7 @@
         <v>0.8034001774811791</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:10">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
@@ -7766,7 +7984,7 @@
         <v>0.9853773481700618</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:10">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
@@ -7798,7 +8016,7 @@
         <v>0.8992995448995671</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:10">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
@@ -7830,7 +8048,7 @@
         <v>0.7160097577135012</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:10">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
@@ -7862,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:10">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
@@ -7894,7 +8112,7 @@
         <v>0.8320775202367354</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:10">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
@@ -7926,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:10">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
@@ -7958,7 +8176,7 @@
         <v>0.5246388314642048</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:10">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
@@ -7990,7 +8208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:10">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
@@ -8022,7 +8240,7 @@
         <v>0.54005238808927</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:10">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
@@ -8054,7 +8272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:10">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
@@ -8086,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:10">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
@@ -8118,7 +8336,7 @@
         <v>0.5160590303030311</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:10">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
@@ -8150,7 +8368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:10">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
@@ -8182,7 +8400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:10">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
@@ -8214,7 +8432,7 @@
         <v>0.9372039760206009</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:10">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
@@ -8246,7 +8464,7 @@
         <v>0.7268983672308496</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:10">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
@@ -8278,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:10">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
@@ -8310,7 +8528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:10">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
@@ -8342,7 +8560,7 @@
         <v>0.8312173488661487</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:10">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
@@ -8374,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:10">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
@@ -8406,7 +8624,7 @@
         <v>0.6817875955508476</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:10">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
@@ -8438,7 +8656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:10">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
@@ -8470,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:10">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
@@ -8502,7 +8720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:10">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
@@ -8534,7 +8752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:10">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
@@ -8566,7 +8784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:10">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
@@ -8598,7 +8816,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:10">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
@@ -8630,7 +8848,7 @@
         <v>0.6572131407347259</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:10">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
@@ -8662,7 +8880,7 @@
         <v>0.8076619961280771</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:10">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
@@ -8694,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:10">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
@@ -8726,7 +8944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:10">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
@@ -8758,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:10">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
@@ -8790,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:10">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
@@ -8822,7 +9040,7 @@
         <v>0.9643693874955976</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:10">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
@@ -8854,7 +9072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:10">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
@@ -8886,7 +9104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:10">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
@@ -8918,7 +9136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:10">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
@@ -8950,7 +9168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:10">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
@@ -8982,7 +9200,7 @@
         <v>0.9733038570306712</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:10">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
@@ -9014,7 +9232,7 @@
         <v>0.6502343796218049</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:10">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
@@ -9046,7 +9264,7 @@
         <v>0.6203619579506091</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:10">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
@@ -9078,7 +9296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:10">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
@@ -9110,7 +9328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:10">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
@@ -9142,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:10">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
@@ -9174,7 +9392,7 @@
         <v>0.8284319741668291</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:10">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
@@ -9206,7 +9424,7 @@
         <v>0.5925942730071749</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:10">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
@@ -9238,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:10">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
@@ -9270,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:10">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
@@ -9302,7 +9520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:10">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
@@ -9334,7 +9552,7 @@
         <v>0.8843242719230034</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:10">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
@@ -9366,7 +9584,7 @@
         <v>0.7259208056360678</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:10">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
@@ -9398,7 +9616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:10">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
@@ -9430,7 +9648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:10">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
@@ -9462,7 +9680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:10">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
@@ -9494,7 +9712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:10">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
@@ -9526,7 +9744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:10">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
@@ -9558,7 +9776,7 @@
         <v>0.6908199831892781</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:10">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
@@ -9590,7 +9808,7 @@
         <v>0.5859840294344179</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:10">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
@@ -9622,7 +9840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:10">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
@@ -9654,7 +9872,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:10">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
@@ -9686,7 +9904,7 @@
         <v>0.7505040632609494</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:10">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
@@ -9718,7 +9936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:10">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
@@ -9750,7 +9968,7 @@
         <v>0.5276466115438715</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:10">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
@@ -9782,7 +10000,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:10">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
@@ -9814,7 +10032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:10">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
@@ -9846,7 +10064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:10">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
@@ -9878,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:10">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
@@ -9910,7 +10128,7 @@
         <v>0.5206104460735745</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:10">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
@@ -9942,7 +10160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:10">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
@@ -9974,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:10">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
@@ -10006,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:10">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
@@ -10038,7 +10256,7 @@
         <v>0.8243567740147349</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:10">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
@@ -10070,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:10">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
@@ -10102,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:10">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
@@ -10134,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:10">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
@@ -10166,7 +10384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:10">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
@@ -10198,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:10">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
@@ -10230,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:10">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
@@ -10262,7 +10480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:10">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
@@ -10294,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:10">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
@@ -10326,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:10">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
@@ -10358,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:10">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
@@ -10390,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:10">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
@@ -10422,7 +10640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:10">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
@@ -10454,7 +10672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:10">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
@@ -10486,7 +10704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:10">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
@@ -10518,7 +10736,7 @@
         <v>0.03197218092813019</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:10">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
@@ -10550,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:10">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
@@ -10582,7 +10800,7 @@
         <v>0.0386348896167236</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:10">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
@@ -10614,7 +10832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:10">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
@@ -10646,7 +10864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:10">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
@@ -10678,7 +10896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:10">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
@@ -10710,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:10">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
@@ -10742,7 +10960,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:10">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
@@ -10774,7 +10992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:10">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
@@ -10806,7 +11024,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:10">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
@@ -10838,7 +11056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:10">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
@@ -10870,7 +11088,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:10">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
@@ -10902,7 +11120,7 @@
         <v>0.8220815912465176</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:10">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
@@ -10934,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:10">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
@@ -10966,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:10">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
@@ -10998,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:10">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
@@ -11030,7 +11248,7 @@
         <v>0.999092558983666</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:10">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
@@ -11062,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:10">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
@@ -11094,7 +11312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:10">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
@@ -11126,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:10">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
@@ -11158,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:10">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
@@ -11190,7 +11408,7 @@
         <v>0.8818189420598762</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:10">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
@@ -11222,7 +11440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:10">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
@@ -11254,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:10">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
@@ -11286,7 +11504,7 @@
         <v>0.7608123220570026</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:10">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
@@ -11318,7 +11536,7 @@
         <v>0.2045979182814991</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:10">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
@@ -11350,7 +11568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:10">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
@@ -11382,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:10">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
@@ -11414,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:10">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
@@ -11446,7 +11664,7 @@
         <v>0.3933351264459697</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:10">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
@@ -11478,7 +11696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:10">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
@@ -11510,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:10">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
@@ -11542,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:10">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
@@ -11574,7 +11792,7 @@
         <v>0.1774076363010125</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:10">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
@@ -11606,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:10">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
@@ -11638,7 +11856,7 @@
         <v>0.3385067218474044</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:10">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
@@ -11670,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:10">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
@@ -11702,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:10">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
@@ -11734,7 +11952,7 @@
         <v>0.3763545582013357</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:10">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
@@ -11766,7 +11984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:10">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
@@ -11798,7 +12016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:10">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -11830,7 +12048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:10">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -11862,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:10">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
@@ -11894,7 +12112,7 @@
         <v>0.5157032617956254</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:10">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -11926,7 +12144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:10">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -11958,7 +12176,7 @@
         <v>0.9895419998417806</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:10">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -11990,7 +12208,7 @@
         <v>0.9154092783389099</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:10">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
@@ -12022,7 +12240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:10">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
@@ -12054,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:10">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
@@ -12086,7 +12304,7 @@
         <v>0.5524820014519604</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:10">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
@@ -12118,7 +12336,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:10">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
@@ -12150,7 +12368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:10">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
@@ -12182,7 +12400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:10">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
@@ -12214,7 +12432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:10">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
@@ -12246,7 +12464,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:10">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
@@ -12278,7 +12496,7 @@
         <v>0.6238356997993684</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:10">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
@@ -12310,7 +12528,7 @@
         <v>0.9293018148568812</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:10">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
@@ -12342,7 +12560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:10">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
@@ -12374,7 +12592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:10">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
@@ -12406,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:10">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
@@ -12438,7 +12656,7 @@
         <v>0.8542850482220548</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:10">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
@@ -12470,7 +12688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:10">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
@@ -12502,7 +12720,7 @@
         <v>0.6640008210526407</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:10">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
@@ -12534,7 +12752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:10">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
@@ -12566,7 +12784,7 @@
         <v>0.581199451545289</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:10">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
@@ -12598,7 +12816,7 @@
         <v>0.8735928906979558</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:10">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
@@ -12630,7 +12848,7 @@
         <v>0.7828731811647995</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:10">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
@@ -12662,7 +12880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:10">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
@@ -12694,7 +12912,7 @@
         <v>0.590589453105683</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:10">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
@@ -12726,7 +12944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:10">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
@@ -12758,7 +12976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:10">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
@@ -12790,7 +13008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:10">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
@@ -12822,7 +13040,7 @@
         <v>0.5257524264630853</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:10">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
@@ -12854,7 +13072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:10">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
@@ -12886,7 +13104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:10">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
@@ -12918,7 +13136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:10">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
@@ -12950,7 +13168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:10">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
@@ -12982,7 +13200,7 @@
         <v>0.5619059023158983</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:10">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
@@ -13014,7 +13232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:10">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
@@ -13046,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:10">
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
@@ -13078,7 +13296,7 @@
         <v>0.9848436616499988</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:10">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
@@ -13110,7 +13328,7 @@
         <v>0.6917021719021708</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:10">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
@@ -13142,7 +13360,7 @@
         <v>0.5921800473343097</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:10">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
@@ -13174,7 +13392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:10">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
@@ -13206,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:10">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
@@ -13238,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:10">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
@@ -13270,7 +13488,7 @@
         <v>0.8729293583974659</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:10">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
@@ -13302,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:10">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
@@ -13334,7 +13552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:10">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
@@ -13366,7 +13584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:10">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
@@ -13398,7 +13616,7 @@
         <v>0.05867333720711199</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:10">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
@@ -13430,7 +13648,7 @@
         <v>0.3881316966875425</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:10">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
@@ -13462,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:10">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
@@ -13494,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:10">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
@@ -13526,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:10">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
@@ -13558,7 +13776,7 @@
         <v>0.4647807394410549</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:10">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
@@ -13590,7 +13808,7 @@
         <v>0.1984451988792613</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:10">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
@@ -13622,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:10">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
@@ -13654,7 +13872,7 @@
         <v>0.4491588870848194</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:10">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
@@ -13686,7 +13904,7 @@
         <v>0.2050587569991509</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:10">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
@@ -13718,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:10">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
@@ -13750,7 +13968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:10">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
@@ -13782,7 +14000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:10">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
@@ -13814,7 +14032,7 @@
         <v>0.6176656288841116</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:10">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
@@ -13846,7 +14064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:10">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
@@ -13878,7 +14096,7 @@
         <v>0.5060134165642186</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:10">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
@@ -13910,7 +14128,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:10">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
@@ -13942,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:10">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
@@ -13974,7 +14192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:10">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
@@ -14006,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:10">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
@@ -14038,7 +14256,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:10">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
@@ -14070,7 +14288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:10">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
@@ -14102,7 +14320,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:10">
       <c r="A429" s="1" t="n">
         <v>427</v>
       </c>
@@ -14134,7 +14352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:10">
       <c r="A430" s="1" t="n">
         <v>428</v>
       </c>
@@ -14166,7 +14384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:10">
       <c r="A431" s="1" t="n">
         <v>429</v>
       </c>
@@ -14198,7 +14416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:10">
       <c r="A432" s="1" t="n">
         <v>430</v>
       </c>
@@ -14230,7 +14448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:10">
       <c r="A433" s="1" t="n">
         <v>431</v>
       </c>
@@ -14262,7 +14480,7 @@
         <v>0.9672516412688084</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:10">
       <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
@@ -14294,7 +14512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:10">
       <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
@@ -14326,7 +14544,7 @@
         <v>0.6895255498925973</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:10">
       <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
@@ -14358,7 +14576,7 @@
         <v>0.7355576861511406</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:10">
       <c r="A437" s="1" t="n">
         <v>435</v>
       </c>
@@ -14390,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:10">
       <c r="A438" s="1" t="n">
         <v>436</v>
       </c>
@@ -14422,7 +14640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:10">
       <c r="A439" s="1" t="n">
         <v>437</v>
       </c>
@@ -14454,7 +14672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:10">
       <c r="A440" s="1" t="n">
         <v>438</v>
       </c>
@@ -14486,7 +14704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:10">
       <c r="A441" s="1" t="n">
         <v>439</v>
       </c>
@@ -14518,7 +14736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:10">
       <c r="A442" s="1" t="n">
         <v>440</v>
       </c>
@@ -14550,7 +14768,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:10">
       <c r="A443" s="1" t="n">
         <v>441</v>
       </c>
@@ -14582,7 +14800,7 @@
         <v>0.57879246153649</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:10">
       <c r="A444" s="1" t="n">
         <v>442</v>
       </c>
@@ -14614,7 +14832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:10">
       <c r="A445" s="1" t="n">
         <v>443</v>
       </c>
@@ -14646,7 +14864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:10">
       <c r="A446" s="1" t="n">
         <v>444</v>
       </c>
@@ -14678,7 +14896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:10">
       <c r="A447" s="1" t="n">
         <v>445</v>
       </c>
@@ -14710,7 +14928,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:10">
       <c r="A448" s="1" t="n">
         <v>446</v>
       </c>
@@ -14742,7 +14960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:10">
       <c r="A449" s="1" t="n">
         <v>447</v>
       </c>
@@ -14774,7 +14992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:10">
       <c r="A450" s="1" t="n">
         <v>448</v>
       </c>
@@ -14806,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:10">
       <c r="A451" s="1" t="n">
         <v>449</v>
       </c>
@@ -14838,7 +15056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:10">
       <c r="A452" s="1" t="n">
         <v>450</v>
       </c>
@@ -14870,7 +15088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:10">
       <c r="A453" s="1" t="n">
         <v>451</v>
       </c>
@@ -14902,7 +15120,7 @@
         <v>0.9669248783436306</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:10">
       <c r="A454" s="1" t="n">
         <v>452</v>
       </c>
@@ -14934,7 +15152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:10">
       <c r="A455" s="1" t="n">
         <v>453</v>
       </c>
@@ -14966,7 +15184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:10">
       <c r="A456" s="1" t="n">
         <v>454</v>
       </c>
@@ -14998,7 +15216,7 @@
         <v>0.6533308744668258</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:10">
       <c r="A457" s="1" t="n">
         <v>455</v>
       </c>
@@ -15030,7 +15248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:10">
       <c r="A458" s="1" t="n">
         <v>456</v>
       </c>
@@ -15062,7 +15280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:10">
       <c r="A459" s="1" t="n">
         <v>457</v>
       </c>
@@ -15094,7 +15312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:10">
       <c r="A460" s="1" t="n">
         <v>458</v>
       </c>
@@ -15126,7 +15344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:10">
       <c r="A461" s="1" t="n">
         <v>459</v>
       </c>
@@ -15158,7 +15376,7 @@
         <v>0.5388146091579687</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:10">
       <c r="A462" s="1" t="n">
         <v>460</v>
       </c>
@@ -15190,7 +15408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:10">
       <c r="A463" s="1" t="n">
         <v>461</v>
       </c>
@@ -15222,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:10">
       <c r="A464" s="1" t="n">
         <v>462</v>
       </c>
@@ -15254,7 +15472,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:10">
       <c r="A465" s="1" t="n">
         <v>463</v>
       </c>
@@ -15286,7 +15504,7 @@
         <v>0.5842066226754848</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:10">
       <c r="A466" s="1" t="n">
         <v>464</v>
       </c>
@@ -15318,7 +15536,7 @@
         <v>0.6656983093326676</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:10">
       <c r="A467" s="1" t="n">
         <v>465</v>
       </c>
@@ -15350,7 +15568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:10">
       <c r="A468" s="1" t="n">
         <v>466</v>
       </c>
@@ -15382,7 +15600,7 @@
         <v>0.7580253479086277</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:10">
       <c r="A469" s="1" t="n">
         <v>467</v>
       </c>
@@ -15414,7 +15632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:10">
       <c r="A470" s="1" t="n">
         <v>468</v>
       </c>
@@ -15446,7 +15664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:10">
       <c r="A471" s="1" t="n">
         <v>469</v>
       </c>
@@ -15478,7 +15696,7 @@
         <v>0.9122818199067037</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:10">
       <c r="A472" s="1" t="n">
         <v>470</v>
       </c>
@@ -15510,7 +15728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:10">
       <c r="A473" s="1" t="n">
         <v>471</v>
       </c>
@@ -15542,7 +15760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:10">
       <c r="A474" s="1" t="n">
         <v>472</v>
       </c>
@@ -15574,7 +15792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:10">
       <c r="A475" s="1" t="n">
         <v>473</v>
       </c>
@@ -15606,7 +15824,7 @@
         <v>0.9967246517207332</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:10">
       <c r="A476" s="1" t="n">
         <v>474</v>
       </c>
@@ -15638,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:10">
       <c r="A477" s="1" t="n">
         <v>475</v>
       </c>
@@ -15670,7 +15888,7 @@
         <v>0.277035401246728</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:10">
       <c r="A478" s="1" t="n">
         <v>476</v>
       </c>
@@ -15702,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:10">
       <c r="A479" s="1" t="n">
         <v>477</v>
       </c>
@@ -15734,7 +15952,7 @@
         <v>0.1540160721769489</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:10">
       <c r="A480" s="1" t="n">
         <v>478</v>
       </c>
@@ -15766,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:10">
       <c r="A481" s="1" t="n">
         <v>479</v>
       </c>
@@ -15798,7 +16016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:10">
       <c r="A482" s="1" t="n">
         <v>480</v>
       </c>
@@ -15830,7 +16048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:10">
       <c r="A483" s="1" t="n">
         <v>481</v>
       </c>
@@ -15862,7 +16080,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:10">
       <c r="A484" s="1" t="n">
         <v>482</v>
       </c>
@@ -15894,7 +16112,7 @@
         <v>0.1847829471257493</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:10">
       <c r="A485" s="1" t="n">
         <v>483</v>
       </c>
@@ -15926,7 +16144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:10">
       <c r="A486" s="1" t="n">
         <v>484</v>
       </c>
@@ -15958,7 +16176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:10">
       <c r="A487" s="1" t="n">
         <v>485</v>
       </c>
@@ -15990,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:10">
       <c r="A488" s="1" t="n">
         <v>486</v>
       </c>
@@ -16022,7 +16240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:10">
       <c r="A489" s="1" t="n">
         <v>487</v>
       </c>
@@ -16054,7 +16272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:10">
       <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
@@ -16086,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:10">
       <c r="A491" s="1" t="n">
         <v>489</v>
       </c>
@@ -16118,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:10">
       <c r="A492" s="1" t="n">
         <v>490</v>
       </c>
@@ -16150,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:10">
       <c r="A493" s="1" t="n">
         <v>491</v>
       </c>
@@ -16182,7 +16400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:10">
       <c r="A494" s="1" t="n">
         <v>492</v>
       </c>
@@ -16214,7 +16432,7 @@
         <v>0.2986650162833282</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:10">
       <c r="A495" s="1" t="n">
         <v>493</v>
       </c>
@@ -16246,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:10">
       <c r="A496" s="1" t="n">
         <v>494</v>
       </c>
@@ -16278,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:10">
       <c r="A497" s="1" t="n">
         <v>495</v>
       </c>
@@ -16310,7 +16528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:10">
       <c r="A498" s="1" t="n">
         <v>496</v>
       </c>
@@ -16342,7 +16560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:10">
       <c r="A499" s="1" t="n">
         <v>497</v>
       </c>
@@ -16374,7 +16592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:10">
       <c r="A500" s="1" t="n">
         <v>498</v>
       </c>
@@ -16406,7 +16624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:10">
       <c r="A501" s="1" t="n">
         <v>499</v>
       </c>
@@ -16438,7 +16656,7 @@
         <v>0.2628839084730591</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:10">
       <c r="A502" s="1" t="n">
         <v>500</v>
       </c>
@@ -16470,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:10">
       <c r="A503" s="1" t="n">
         <v>501</v>
       </c>
@@ -16502,7 +16720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:10">
       <c r="A504" s="1" t="n">
         <v>502</v>
       </c>
@@ -16534,7 +16752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:10">
       <c r="A505" s="1" t="n">
         <v>503</v>
       </c>
@@ -16566,7 +16784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:10">
       <c r="A506" s="1" t="n">
         <v>504</v>
       </c>
@@ -16598,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:10">
       <c r="A507" s="1" t="n">
         <v>505</v>
       </c>
@@ -16630,7 +16848,7 @@
         <v>0.1164344947205817</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:10">
       <c r="A508" s="1" t="n">
         <v>506</v>
       </c>
@@ -16662,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:10">
       <c r="A509" s="1" t="n">
         <v>507</v>
       </c>
@@ -16694,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:10">
       <c r="A510" s="1" t="n">
         <v>508</v>
       </c>
@@ -16726,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:10">
       <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
@@ -16758,7 +16976,7 @@
         <v>0.1610666425617655</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:10">
       <c r="A512" s="1" t="n">
         <v>510</v>
       </c>
@@ -16790,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:10">
       <c r="A513" s="1" t="n">
         <v>511</v>
       </c>
@@ -16822,7 +17040,7 @@
         <v>0.3039955353192376</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:10">
       <c r="A514" s="1" t="n">
         <v>512</v>
       </c>
@@ -16854,7 +17072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:10">
       <c r="A515" s="1" t="n">
         <v>513</v>
       </c>
@@ -16886,7 +17104,7 @@
         <v>0.4318989501134882</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:10">
       <c r="A516" s="1" t="n">
         <v>514</v>
       </c>
@@ -16918,7 +17136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:10">
       <c r="A517" s="1" t="n">
         <v>515</v>
       </c>
@@ -16950,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:10">
       <c r="A518" s="1" t="n">
         <v>516</v>
       </c>
@@ -16982,7 +17200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:10">
       <c r="A519" s="1" t="n">
         <v>517</v>
       </c>
@@ -17014,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:10">
       <c r="A520" s="1" t="n">
         <v>518</v>
       </c>
@@ -17046,7 +17264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:10">
       <c r="A521" s="1" t="n">
         <v>519</v>
       </c>
@@ -17078,7 +17296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:10">
       <c r="A522" s="1" t="n">
         <v>520</v>
       </c>
@@ -17110,7 +17328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:10">
       <c r="A523" s="1" t="n">
         <v>521</v>
       </c>
@@ -17142,7 +17360,7 @@
         <v>0.3974022300967237</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:10">
       <c r="A524" s="1" t="n">
         <v>522</v>
       </c>
@@ -17174,7 +17392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:10">
       <c r="A525" s="1" t="n">
         <v>523</v>
       </c>
@@ -17206,7 +17424,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:10">
       <c r="A526" s="1" t="n">
         <v>524</v>
       </c>
@@ -17238,7 +17456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:10">
       <c r="A527" s="1" t="n">
         <v>525</v>
       </c>
@@ -17270,7 +17488,7 @@
         <v>0.1937670635022604</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:10">
       <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
@@ -17302,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:10">
       <c r="A529" s="1" t="n">
         <v>527</v>
       </c>
@@ -17334,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:10">
       <c r="A530" s="1" t="n">
         <v>528</v>
       </c>
@@ -17366,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:10">
       <c r="A531" s="1" t="n">
         <v>529</v>
       </c>
@@ -17398,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:10">
       <c r="A532" s="1" t="n">
         <v>530</v>
       </c>
@@ -17430,7 +17648,7 @@
         <v>0.4242734515517371</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:10">
       <c r="A533" s="1" t="n">
         <v>531</v>
       </c>
@@ -17462,7 +17680,7 @@
         <v>0.3675915923156888</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:10">
       <c r="A534" s="1" t="n">
         <v>532</v>
       </c>
@@ -17494,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:10">
       <c r="A535" s="1" t="n">
         <v>533</v>
       </c>
@@ -17526,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:10">
       <c r="A536" s="1" t="n">
         <v>534</v>
       </c>
@@ -17558,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:10">
       <c r="A537" s="1" t="n">
         <v>535</v>
       </c>
@@ -17590,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:10">
       <c r="A538" s="1" t="n">
         <v>536</v>
       </c>
@@ -17622,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:10">
       <c r="A539" s="1" t="n">
         <v>537</v>
       </c>
@@ -17654,7 +17872,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:10">
       <c r="A540" s="1" t="n">
         <v>538</v>
       </c>
@@ -17686,7 +17904,7 @@
         <v>0.2780085287988258</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:10">
       <c r="A541" s="1" t="n">
         <v>539</v>
       </c>
@@ -17718,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:10">
       <c r="A542" s="1" t="n">
         <v>540</v>
       </c>
@@ -17750,7 +17968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:10">
       <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
@@ -17782,7 +18000,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:10">
       <c r="A544" s="1" t="n">
         <v>542</v>
       </c>
@@ -17814,7 +18032,7 @@
         <v>0.7341639629050646</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:10">
       <c r="A545" s="1" t="n">
         <v>543</v>
       </c>
@@ -17846,7 +18064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:10">
       <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
@@ -17878,7 +18096,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:10">
       <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
@@ -17910,7 +18128,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:10">
       <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
@@ -17942,7 +18160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:10">
       <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
@@ -17974,7 +18192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:10">
       <c r="A550" s="1" t="n">
         <v>548</v>
       </c>
@@ -18006,7 +18224,7 @@
         <v>0.6853805883465166</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:10">
       <c r="A551" s="1" t="n">
         <v>549</v>
       </c>
@@ -18049,7 +18267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18057,988 +18275,844 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Buy_amount</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Buy_price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Buy_value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Buy_comm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Buy_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sell_amount</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sell_price</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Sell_value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Sell_comm</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Sell_date</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>net_profit</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>trans_return</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>daily_return</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>annual_return</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>close_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>5366.55</v>
+        <v>5384.75</v>
       </c>
       <c r="E2" t="n">
-        <v>-536654.9804999999</v>
+        <v>-538475</v>
       </c>
       <c r="F2" t="n">
-        <v>1073.31</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2016-11-23</t>
-        </is>
+        <v>1076.95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
       <c r="H2" t="n">
         <v>-100</v>
       </c>
       <c r="I2" t="n">
-        <v>5836.5</v>
+        <v>5896.15</v>
       </c>
       <c r="J2" t="n">
-        <v>583650</v>
+        <v>589614.9902</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.3</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2017-03-28</t>
-        </is>
+        <v>1179.23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
       </c>
       <c r="M2" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00555</v>
+        <v>0.00547</v>
       </c>
       <c r="O2" t="n">
-        <v>44754.41</v>
+        <v>48883.81</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0834</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006399999999999739</v>
+        <v>0.0006800000000000139</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2629999999999999</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.2816000000000001</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>5905.63</v>
+        <v>5878.76</v>
       </c>
       <c r="E3" t="n">
-        <v>-590562.9883</v>
+        <v>-587875.9765999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1181.13</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2017-03-31</t>
-        </is>
+        <v>1175.75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="H3" t="n">
         <v>-100</v>
       </c>
       <c r="I3" t="n">
-        <v>6173.29</v>
+        <v>5919.02</v>
       </c>
       <c r="J3" t="n">
-        <v>617329.0039</v>
+        <v>591902.002</v>
       </c>
       <c r="K3" t="n">
-        <v>1234.66</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2017-07-03</t>
-        </is>
+        <v>1183.8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00708</v>
+        <v>0.0046</v>
       </c>
       <c r="O3" t="n">
-        <v>24350.23</v>
+        <v>1666.48</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0412</v>
+        <v>0.0028</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004299999999999304</v>
+        <v>0.000159999999999938</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1698999999999999</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.06010000000000004</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>6363.24</v>
+        <v>5979.96</v>
       </c>
       <c r="E4" t="n">
-        <v>-636324.0234000001</v>
+        <v>-597995.9961</v>
       </c>
       <c r="F4" t="n">
-        <v>1272.65</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2017-07-19</t>
-        </is>
+        <v>1195.99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
       <c r="H4" t="n">
         <v>-100</v>
       </c>
       <c r="I4" t="n">
-        <v>6348.11</v>
+        <v>6239.15</v>
       </c>
       <c r="J4" t="n">
-        <v>634810.9863000001</v>
+        <v>623914.9902</v>
       </c>
       <c r="K4" t="n">
-        <v>1269.62</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2017-08-16</t>
-        </is>
+        <v>1247.83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
       </c>
       <c r="M4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00653</v>
+        <v>0.0069</v>
       </c>
       <c r="O4" t="n">
-        <v>-4055.31</v>
+        <v>23475.17</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0064</v>
+        <v>0.0393</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0002299999999999525</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.08050000000000002</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.2677</v>
+      </c>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>6322.72</v>
+        <v>6292.73</v>
       </c>
       <c r="E5" t="n">
-        <v>-632272.0215</v>
+        <v>-629272.998</v>
       </c>
       <c r="F5" t="n">
-        <v>1264.54</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2017-08-17</t>
-        </is>
+        <v>1258.55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>-100</v>
       </c>
       <c r="I5" t="n">
-        <v>6216.32</v>
+        <v>6111.21</v>
       </c>
       <c r="J5" t="n">
-        <v>621631.9824</v>
+        <v>611120.9961</v>
       </c>
       <c r="K5" t="n">
-        <v>1243.26</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2017-08-21</t>
-        </is>
+        <v>1222.24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.00993</v>
       </c>
       <c r="O5" t="n">
-        <v>-13147.84</v>
+        <v>-20632.79</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0208</v>
+        <v>-0.0328</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.005240000000000022</v>
+        <v>-0.003029999999999977</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.853</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+        <v>-0.6697</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>6263.47</v>
+        <v>6304.82</v>
       </c>
       <c r="E6" t="n">
-        <v>-626347.0215</v>
+        <v>-630481.9824</v>
       </c>
       <c r="F6" t="n">
-        <v>1252.69</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2017-08-23</t>
-        </is>
+        <v>1260.96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>-100</v>
       </c>
       <c r="I6" t="n">
-        <v>6293.81</v>
+        <v>6322.72</v>
       </c>
       <c r="J6" t="n">
-        <v>629381.0059</v>
+        <v>632272.0215</v>
       </c>
       <c r="K6" t="n">
-        <v>1258.76</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2017-08-25</t>
-        </is>
+        <v>1264.54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.00743</v>
       </c>
       <c r="O6" t="n">
-        <v>522.53</v>
+        <v>-735.46</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0008</v>
+        <v>-0.0012</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-4.000000000004e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1572</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+        <v>-0.01449999999999996</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>6414.82</v>
+        <v>6216.32</v>
       </c>
       <c r="E7" t="n">
-        <v>-641481.9824</v>
+        <v>-621631.9824</v>
       </c>
       <c r="F7" t="n">
-        <v>1282.96</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2017-09-05</t>
-        </is>
+        <v>1243.26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>-100</v>
       </c>
       <c r="I7" t="n">
-        <v>6394.35</v>
+        <v>6241.21</v>
       </c>
       <c r="J7" t="n">
-        <v>639435.0098</v>
+        <v>624120.9961</v>
       </c>
       <c r="K7" t="n">
-        <v>1278.87</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2017-09-06</t>
-        </is>
+        <v>1248.24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="s"/>
       <c r="O7" t="n">
-        <v>-4608.8</v>
+        <v>-2.49</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0072</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.007199999999999984</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.9285</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>6402.94</v>
+        <v>6414.82</v>
       </c>
       <c r="E8" t="n">
-        <v>-640293.9941</v>
+        <v>-641481.9824</v>
       </c>
       <c r="F8" t="n">
-        <v>1280.59</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2017-09-07</t>
-        </is>
+        <v>1282.96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
       </c>
       <c r="H8" t="n">
         <v>-100</v>
       </c>
       <c r="I8" t="n">
-        <v>6936.68</v>
+        <v>6863.34</v>
       </c>
       <c r="J8" t="n">
-        <v>693668.0176</v>
+        <v>686333.9844</v>
       </c>
       <c r="K8" t="n">
-        <v>1387.34</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2018-02-12</t>
-        </is>
+        <v>1372.67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
       </c>
       <c r="M8" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00848</v>
+        <v>0.00834</v>
       </c>
       <c r="O8" t="n">
-        <v>50706.09</v>
+        <v>42196.37</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.0658</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.000480000000000036</v>
+        <v>0.0004100000000000215</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1914</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.1614</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>7236.51</v>
+        <v>7373.3</v>
       </c>
       <c r="E9" t="n">
-        <v>-723650.9765999999</v>
+        <v>-737329.9804999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1447.3</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2018-02-16</t>
-        </is>
+        <v>1474.66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>-100</v>
       </c>
       <c r="I9" t="n">
-        <v>7252.46</v>
+        <v>6978.3</v>
       </c>
       <c r="J9" t="n">
-        <v>725245.9961</v>
+        <v>697829.9804999999</v>
       </c>
       <c r="K9" t="n">
-        <v>1450.49</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2018-02-22</t>
-        </is>
+        <v>1395.66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00055</v>
+        <v>0.01439</v>
       </c>
       <c r="O9" t="n">
-        <v>-1302.77</v>
+        <v>-42370.32</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0018</v>
+        <v>-0.0575</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.000299999999999967</v>
+        <v>-0.001970000000000027</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1037</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+        <v>-0.5131</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>7416.17</v>
+        <v>6984.66</v>
       </c>
       <c r="E10" t="n">
-        <v>-741616.9922</v>
+        <v>-698466.0156</v>
       </c>
       <c r="F10" t="n">
-        <v>1483.23</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2018-02-27</t>
-        </is>
+        <v>1396.93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
       </c>
       <c r="H10" t="n">
         <v>-100</v>
       </c>
       <c r="I10" t="n">
-        <v>7099.54</v>
+        <v>7016.17</v>
       </c>
       <c r="J10" t="n">
-        <v>709954.0039</v>
+        <v>701616.9922</v>
       </c>
       <c r="K10" t="n">
-        <v>1419.91</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2018-03-02</t>
-        </is>
+        <v>1403.23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.01174</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
       <c r="O10" t="n">
-        <v>-34566.13</v>
+        <v>350.82</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0466</v>
+        <v>0.0005</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.01578000000000002</v>
+        <v>0.000119999999999898</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.997</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.04479999999999995</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B11" t="s">
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>7222.89</v>
+        <v>7220.64</v>
       </c>
       <c r="E11" t="n">
-        <v>-722289.0137</v>
+        <v>-722064.0137</v>
       </c>
       <c r="F11" t="n">
-        <v>1444.58</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2018-03-05</t>
-        </is>
+        <v>1444.13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
       </c>
       <c r="H11" t="n">
         <v>-100</v>
       </c>
       <c r="I11" t="n">
-        <v>6984.66</v>
+        <v>7550.66</v>
       </c>
       <c r="J11" t="n">
-        <v>698466.0156</v>
+        <v>755066.0156</v>
       </c>
       <c r="K11" t="n">
-        <v>1396.93</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2018-03-29</t>
-        </is>
+        <v>1510.13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01567</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>-26664.51</v>
+        <v>30047.74</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0369</v>
+        <v>0.0416</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.00156999999999996</v>
+        <v>0.0005399999999999849</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.4365</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.2178</v>
+      </c>
+      <c r="S11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>7016.17</v>
+        <v>7595.93</v>
       </c>
       <c r="E12" t="n">
-        <v>-701616.9922</v>
+        <v>-759593.0176</v>
       </c>
       <c r="F12" t="n">
-        <v>1403.23</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2018-04-02</t>
-        </is>
+        <v>1519.19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
       </c>
       <c r="H12" t="n">
         <v>-100</v>
       </c>
       <c r="I12" t="n">
-        <v>6924.35</v>
+        <v>7731.74</v>
       </c>
       <c r="J12" t="n">
-        <v>692435.0098000001</v>
+        <v>773174.0234000001</v>
       </c>
       <c r="K12" t="n">
-        <v>1384.87</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2018-04-03</t>
-        </is>
+        <v>1546.35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
       <c r="O12" t="n">
-        <v>-11970.08</v>
+        <v>10515.47</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0171</v>
+        <v>0.0138</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0171</v>
+        <v>0.004580000000000028</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.9982</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+        <v>4.3009</v>
+      </c>
+      <c r="S12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>6999.57</v>
+        <v>7698.51</v>
       </c>
       <c r="E13" t="n">
-        <v>-699956.9824</v>
+        <v>-769850.9765999999</v>
       </c>
       <c r="F13" t="n">
-        <v>1399.91</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2018-04-06</t>
-        </is>
+        <v>1539.7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
       </c>
       <c r="H13" t="n">
         <v>-100</v>
       </c>
       <c r="I13" t="n">
-        <v>6971.45</v>
+        <v>7903.57</v>
       </c>
       <c r="J13" t="n">
-        <v>697145.0195000001</v>
+        <v>790356.9824</v>
       </c>
       <c r="K13" t="n">
-        <v>1394.29</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2018-04-09</t>
-        </is>
+        <v>1580.71</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00674</v>
+      </c>
       <c r="O13" t="n">
-        <v>-5606.16</v>
+        <v>17385.6</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.008</v>
+        <v>0.0226</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.00266999999999995</v>
+        <v>0.000320000000000098</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.6231</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.1238999999999999</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>7258.61</v>
+        <v>7962.55</v>
       </c>
       <c r="E14" t="n">
-        <v>-725860.9863</v>
+        <v>-796254.9804999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1451.72</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2018-04-19</t>
-        </is>
+        <v>1592.51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
       </c>
       <c r="H14" t="n">
         <v>-100</v>
       </c>
       <c r="I14" t="n">
-        <v>7451.9</v>
+        <v>8001.59</v>
       </c>
       <c r="J14" t="n">
-        <v>745189.9901999999</v>
+        <v>800158.9844</v>
       </c>
       <c r="K14" t="n">
-        <v>1490.38</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2018-07-02</t>
-        </is>
+        <v>1600.32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
       </c>
       <c r="M14" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00769</v>
+        <v>0.00306</v>
       </c>
       <c r="O14" t="n">
-        <v>16386.9</v>
+        <v>711.17</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0226</v>
+        <v>0.0009</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1156999999999999</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.05630000000000002</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>7859.43</v>
+        <v>8011.68</v>
       </c>
       <c r="E15" t="n">
-        <v>-785943.0176</v>
+        <v>-801168.0176</v>
       </c>
       <c r="F15" t="n">
-        <v>1571.89</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+        <v>1602.34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
       </c>
       <c r="H15" t="n">
         <v>-100</v>
@@ -19052,829 +19126,206 @@
       <c r="K15" t="n">
         <v>1477.61</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2018-10-11</t>
-        </is>
+      <c r="L15" t="s">
+        <v>56</v>
       </c>
       <c r="M15" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>0.008789999999999999</v>
+        <v>0.01236</v>
       </c>
       <c r="O15" t="n">
-        <v>-50185.54</v>
+        <v>-65440.99</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0639</v>
+        <v>-0.08169999999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0007800000000000029</v>
+        <v>-0.005669999999999953</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.2478</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+        <v>-0.8745000000000001</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>7669.26</v>
+        <v>7364.05</v>
       </c>
       <c r="E16" t="n">
-        <v>-766925.9765999999</v>
+        <v>-736404.9804999999</v>
       </c>
       <c r="F16" t="n">
-        <v>1533.85</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2018-10-17</t>
-        </is>
+        <v>1472.81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
       </c>
       <c r="H16" t="n">
         <v>-100</v>
       </c>
       <c r="I16" t="n">
-        <v>7486.74</v>
+        <v>6867.43</v>
       </c>
       <c r="J16" t="n">
-        <v>748674.0234000001</v>
+        <v>686743.0176</v>
       </c>
       <c r="K16" t="n">
-        <v>1497.35</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2018-10-22</t>
-        </is>
+        <v>1373.49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00373</v>
+        <v>0.01584</v>
       </c>
       <c r="O16" t="n">
-        <v>-21283.15</v>
+        <v>-52508.26</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.0278</v>
+        <v>-0.0713</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.005619999999999958</v>
+        <v>-0.009199999999999986</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.8722</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+        <v>-0.9657</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>7328.55</v>
+        <v>7163.49</v>
       </c>
       <c r="E17" t="n">
-        <v>-732854.9804999999</v>
+        <v>-716349.0234000001</v>
       </c>
       <c r="F17" t="n">
-        <v>1465.71</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2018-10-23</t>
-        </is>
+        <v>1432.7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
       </c>
       <c r="H17" t="n">
         <v>-100</v>
       </c>
       <c r="I17" t="n">
-        <v>7197.49</v>
+        <v>6986.37</v>
       </c>
       <c r="J17" t="n">
-        <v>719749.0234000001</v>
+        <v>698637.0117</v>
       </c>
       <c r="K17" t="n">
-        <v>1439.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2018-10-25</t>
-        </is>
+        <v>1397.27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.01181</v>
       </c>
       <c r="O17" t="n">
-        <v>-16011.17</v>
+        <v>-20541.98</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0218</v>
+        <v>-0.0287</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.01095999999999997</v>
+        <v>-0.004149999999999987</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.9821</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+        <v>-0.7807999999999999</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>7125.18</v>
+        <v>6931.39</v>
       </c>
       <c r="E18" t="n">
-        <v>-712518.0176</v>
+        <v>-693139.0137</v>
       </c>
       <c r="F18" t="n">
-        <v>1425.04</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2018-10-26</t>
-        </is>
+        <v>1386.28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
       </c>
       <c r="H18" t="n">
         <v>-100</v>
       </c>
       <c r="I18" t="n">
-        <v>7017.87</v>
+        <v>7028.29</v>
       </c>
       <c r="J18" t="n">
-        <v>701787.0117</v>
+        <v>702829.0039</v>
       </c>
       <c r="K18" t="n">
-        <v>1403.57</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2018-10-30</t>
-        </is>
+        <v>1405.66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.01074</v>
       </c>
       <c r="O18" t="n">
-        <v>-13559.62</v>
+        <v>6898.05</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.019</v>
+        <v>0.01</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.004780000000000006</v>
+        <v>0.0007099999999999884</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.8260000000000001</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7424.02</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-742402.002</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1484.8</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2018-11-02</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7344.08</v>
-      </c>
-      <c r="J19" t="n">
-        <v>734408.0078</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1468.82</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2018-11-05</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-10947.61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-0.0147</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-0.004920000000000035</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-0.8347</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7544.17</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-754416.9922</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1508.83</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2018-11-08</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7265.39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>726539.0137</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1453.08</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.01159</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-30839.89</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-0.0409</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-0.006939999999999946</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-0.9213</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7193.6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-719360.0098000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1438.72</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2018-11-16</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6985.51</v>
-      </c>
-      <c r="J21" t="n">
-        <v>698550.9765999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1397.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-23644.85</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-0.0329</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-0.006669999999999954</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-0.9131</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>100</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7407.95</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-740795.0195000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1481.59</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2018-12-04</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7017.05</v>
-      </c>
-      <c r="J22" t="n">
-        <v>701704.9804999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1403.41</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2018-12-06</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>-41975.04</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-0.0567</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-0.02876000000000001</v>
-      </c>
-      <c r="R22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>100</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7163.49</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-716349.0234000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1432.7</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2018-12-07</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6959.63</v>
-      </c>
-      <c r="J23" t="n">
-        <v>695962.9883</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1391.93</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2018-12-10</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>-23210.67</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-0.0324</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.01092000000000004</v>
-      </c>
-      <c r="R23" t="n">
-        <v>-0.9818</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7135.28</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-713527.9785</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1427.06</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2018-12-13</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6809.82</v>
-      </c>
-      <c r="J24" t="n">
-        <v>680981.9824</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1361.96</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2018-12-18</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.01359</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-35335.02</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-0.0495</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-0.0101</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-0.9754</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6777.59</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-677758.9844</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1355.52</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2018-12-19</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6278.49</v>
-      </c>
-      <c r="J25" t="n">
-        <v>627849.0234000001</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1255.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2018-12-24</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.00391</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-52521.18</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-0.0775</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.01600000000000001</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-0.9972</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6947.46</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-694745.9961</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1389.49</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2019-01-11</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6908.03</v>
-      </c>
-      <c r="J26" t="n">
-        <v>690802.9785</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1381.61</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2019-01-14</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>-6714.12</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-0.0097</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-0.003240000000000021</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.6940999999999999</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>nasdaq_for_backtest</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7033.75</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-703375</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1406.75</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2019-01-16</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7028.29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>702829.0039</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1405.66</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2019-01-29</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>13</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.01111</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-3358.41</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-0.0003699999999999815</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-0.1263</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Not_close</t>
-        </is>
+        <v>0.2957000000000001</v>
+      </c>
+      <c r="S18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -19896,115 +19347,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_trans_return</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_daily_return</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_annual_return</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_period</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>total_period</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cum_return</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sharpe_ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>geo_avg_daily_return</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>geo_avg_annual_return</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>win_time</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>loss_time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>total_time</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>win_percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0142</v>
+        <v>0.0009</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0061</v>
+        <v>-0.0009</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5575</v>
+        <v>0.1172</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6771</v>
+        <v>0.9981</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.700435034129329</v>
+        <v>-0.1987232663780437</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0005899999999999794</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1938</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
   </sheetData>
